--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.76</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.75</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1256,4 +1257,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1617,4 +1618,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1673,14 +1716,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.96</v>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1689,14 +1754,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1705,13 +1792,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1873,7 +1874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,17 +1885,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1904,14 +1925,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1920,14 +1963,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -1936,14 +2001,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.96</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -1952,14 +2123,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -1968,13 +2139,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
+++ b/数据整理/stocks/A股/上证主板/601598-中国外运.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,171 +456,303 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006942</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006943</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -647,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.3095</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.72</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0640</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -791,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>86.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -829,431 +961,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011256</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德鸿光一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2599</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011257</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德鸿光一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3956</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1077</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006202</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德核心资产混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1628,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1649,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1679,36 +1415,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>011256</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>交银施罗德鸿光一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>57.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3095</t>
+          <t>1.2599</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1717,36 +1453,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>011257</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>交银施罗德鸿光一年持有期混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>17.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>21.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>0.3956</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1755,36 +1491,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0640</t>
+          <t>0.1077</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1793,36 +1529,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.73</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0871</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1831,35 +1567,185 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1874,7 +1760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1895,7 +1781,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1925,36 +1811,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.24</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1117</t>
+          <t>0.0616</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1963,36 +1849,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0771</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2001,36 +1887,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>006202</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>交银施罗德核心资产混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>85.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0343</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2044,128 +2006,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>